--- a/data/xlsx/dataset_stats.xlsx
+++ b/data/xlsx/dataset_stats.xlsx
@@ -540,7 +540,7 @@
         <v>433738</v>
       </c>
       <c r="C3" t="n">
-        <v>78949</v>
+        <v>78933</v>
       </c>
       <c r="D3" t="n">
         <v>89704</v>
